--- a/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
+++ b/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
@@ -44,7 +44,6 @@
     <sheet name="L408" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="UTILIZATION_SUMMARY" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="DOUBLE_BOOKING_ALERTS" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="CONFLICT_SUMMARY" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -71,7 +70,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -100,12 +99,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -156,9 +149,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -538,11 +528,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -620,24 +610,24 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -647,9 +637,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -659,12 +649,12 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | ECE</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -679,19 +669,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -718,7 +708,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | ECE</t>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -750,7 +740,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -775,9 +765,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -785,14 +775,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -839,6 +829,636 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -935,9 +1555,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -962,14 +1582,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -999,9 +1619,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1060,7 +1680,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1090,14 +1710,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1135,636 +1755,6 @@
       <c r="D9" s="4" t="inlineStr">
         <is>
           <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -1801,8 +1791,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1848,9 +1838,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1907,14 +1897,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1922,14 +1912,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1936,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1971,9 +1961,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2003,9 +1993,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -2037,12 +2027,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu, Girish G N | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2050,9 +2040,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -2067,9 +2057,9 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -2510,9 +2500,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2522,7 +2512,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2537,14 +2527,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -2552,9 +2542,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2569,9 +2559,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -2601,9 +2591,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2638,9 +2628,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -2665,14 +2655,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2747,7 +2737,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2825,24 +2815,24 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2876,17 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2953,19 +2943,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -2980,14 +2970,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2995,9 +2985,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3062,7 +3052,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3142,7 +3132,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -3150,14 +3140,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
     </row>
@@ -3182,14 +3172,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -3214,9 +3204,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3231,9 +3221,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3297,12 +3287,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -3450,14 +3440,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -3465,14 +3455,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3479,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -3497,14 +3487,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -3514,9 +3504,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3529,9 +3519,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3546,9 +3536,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3583,9 +3573,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3610,14 +3600,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -4003,11 +3993,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4080,14 +4070,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4097,7 +4087,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4117,9 +4107,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -4154,9 +4144,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE
+DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -4213,9 +4204,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE
+DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -4223,14 +4215,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -4240,9 +4232,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -4250,19 +4242,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -4949,9 +4941,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -5094,9 +5086,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -5104,9 +5096,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -5126,9 +5118,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -5136,9 +5128,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5155,7 +5147,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -5168,9 +5160,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5187,7 +5179,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -5200,9 +5192,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5406,12 +5398,12 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -5438,12 +5430,12 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -5468,14 +5460,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5500,14 +5492,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5580,8 +5572,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -5721,7 +5713,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5739,9 +5731,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5745,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5771,9 +5763,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5790,7 +5782,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5798,14 +5790,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5814,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5830,14 +5822,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -5857,9 +5849,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -5895,7 +5887,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -6049,9 +6041,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -6081,9 +6073,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6100,7 +6092,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -6108,14 +6100,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6132,7 +6124,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -6140,14 +6132,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -6211,7 +6203,7 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -6351,7 +6343,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6383,7 +6375,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6420,7 +6412,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -6428,14 +6420,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6452,7 +6444,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -6460,14 +6452,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6523,11 +6515,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6684,9 +6676,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -6696,9 +6688,10 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE
+CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6716,9 +6709,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -6748,9 +6741,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6775,14 +6768,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -7153,9 +7146,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -7230,19 +7223,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7267,9 +7260,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -7277,9 +7270,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -7326,9 +7319,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -7358,14 +7351,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7373,9 +7366,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -7405,9 +7398,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -7469,8 +7462,8 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -7550,9 +7543,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -7582,14 +7575,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7614,19 +7607,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7656,9 +7649,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -7673,14 +7666,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7688,9 +7681,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -7707,12 +7700,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -7722,7 +7715,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -7786,8 +7779,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7860,9 +7853,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -7870,14 +7863,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -7899,12 +7892,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Post-Mid) | DSAI</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7990,7 +7983,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Post-Mid) | DSAI</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -8008,9 +8001,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -8020,9 +8013,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -8040,9 +8033,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8094,7 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -8180,9 +8173,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8212,14 +8205,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -8239,15 +8232,14 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI
-MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8272,9 +8264,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -8304,15 +8296,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI
-MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8320,9 +8311,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -8337,14 +8328,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -8352,9 +8343,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -8401,321 +8392,6 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8812,14 +8488,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -8851,7 +8527,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -8876,14 +8552,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8908,9 +8584,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8937,17 +8613,18 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI
+MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 5 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -8972,9 +8649,324 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -9049,7 +9041,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9132,19 +9124,20 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI
+MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -9169,9 +9162,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -9193,12 +9186,12 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -9223,9 +9216,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -9233,9 +9226,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -9255,14 +9248,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -9292,9 +9285,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -9439,18 +9432,17 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
           <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI
-MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -9475,14 +9467,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu, Girish G N | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -9507,14 +9499,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 5 (Post-Mid) | DSAI</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -9566,16 +9558,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>⚠ LAB CONFLICT:
-MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI
-CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9607,7 +9597,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -9734,14 +9724,14 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -9762,14 +9752,14 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -9790,14 +9780,14 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
     </row>
@@ -9818,14 +9808,14 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>52.5%</t>
         </is>
       </c>
     </row>
@@ -9846,14 +9836,14 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -9874,14 +9864,14 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>65.0%</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9891,7 @@
           <t>library</t>
         </is>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
@@ -9930,14 +9920,14 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>72.5%</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9947,7 @@
           <t>Examination room</t>
         </is>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
@@ -9986,14 +9976,14 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10014,14 +10004,14 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10042,14 +10032,14 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -10070,14 +10060,14 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -10097,7 +10087,7 @@
           <t>Physics Lab</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
@@ -10126,14 +10116,14 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -10154,14 +10144,14 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -10182,14 +10172,14 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10210,14 +10200,14 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10227,13 +10217,13 @@
           <t>C306</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr"/>
+      <c r="B20" s="6" t="inlineStr"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
@@ -10261,7 +10251,7 @@
           <t>RESEARCH LAB</t>
         </is>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
@@ -10289,7 +10279,7 @@
           <t>RESEARCH LAB</t>
         </is>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
@@ -10318,14 +10308,14 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10346,14 +10336,14 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10374,14 +10364,14 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -10402,14 +10392,14 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10458,14 +10448,14 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10475,7 @@
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
@@ -10514,14 +10504,14 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10542,14 +10532,14 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -10570,14 +10560,14 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10598,14 +10588,14 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10626,14 +10616,14 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
     </row>
@@ -10654,14 +10644,14 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -10682,14 +10672,14 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10704,7 +10694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10712,173 +10702,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="60" customWidth="1" min="8" max="8"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Classroom</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Conflict Period(s)</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Courses</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Lab</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>['CS304', 'MA261']</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>['MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI', 'CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A']</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Total Conflicts</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Lab Room Conflicts</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Large Room (120/240) Conflicts</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Regular Room Conflicts</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
-        <v>0</v>
+          <t>No double-bookings detected - All classroom allocations are unique</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -10901,7 +10739,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
@@ -10988,19 +10826,20 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -11015,15 +10854,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
           <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
-MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -11050,12 +10890,14 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -11080,9 +10922,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -11090,9 +10932,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -11107,20 +10949,22 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
-MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11128,9 +10972,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -11140,14 +10984,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -11160,9 +11004,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -11302,7 +11146,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -11329,17 +11173,18 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
+MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -11364,9 +11209,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
+MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11391,9 +11237,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -11401,14 +11247,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -11425,7 +11271,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V, Sunil C K, Animesh Roy | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -11433,9 +11279,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11455,9 +11301,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -11465,14 +11311,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -11536,8 +11382,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11578,29 +11424,34 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -11615,9 +11466,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -11625,9 +11476,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -11647,9 +11498,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -11679,9 +11530,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11706,9 +11557,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Utkarsh K, Siddharth, Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -11718,12 +11569,12 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -11738,9 +11589,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -11748,9 +11599,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu, Girish G N | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11770,9 +11621,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -11780,9 +11631,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -11802,29 +11653,34 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -12164,10 +12020,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12208,29 +12064,34 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -12245,9 +12106,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -12255,14 +12116,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -12272,24 +12133,24 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -12351,9 +12212,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -12380,7 +12241,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu, Girish G N | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -12402,12 +12263,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu, Girish G N | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -12415,9 +12276,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -12432,29 +12293,34 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
+++ b/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
@@ -44,6 +44,7 @@
     <sheet name="L408" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="UTILIZATION_SUMMARY" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="DOUBLE_BOOKING_ALERTS" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="CONFLICT_SUMMARY" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,11 +529,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -622,12 +623,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -649,12 +650,12 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -676,12 +677,12 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -706,9 +707,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -740,7 +741,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -765,9 +766,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -775,14 +776,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -846,7 +847,7 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -959,12 +960,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -989,9 +990,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1048,19 +1049,20 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A
+HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1080,14 +1082,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1095,9 +1097,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1158,10 +1160,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1240,9 +1242,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1267,14 +1269,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1343,12 +1345,12 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -1368,9 +1370,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1400,9 +1402,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1410,9 +1412,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1459,6 +1461,321 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1555,9 +1872,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1582,14 +1899,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1619,9 +1936,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1678,9 +1995,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1712,12 +2029,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1728,321 +2045,6 @@
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -2418,9 +2420,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -2500,9 +2502,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2510,9 +2512,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2527,14 +2529,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -2544,7 +2546,7 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2564,9 +2566,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -2591,9 +2593,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2628,14 +2630,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2655,14 +2657,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2670,9 +2672,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -2733,11 +2735,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2815,9 +2817,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2827,12 +2829,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -2857,9 +2859,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2874,19 +2876,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2911,9 +2913,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -2943,9 +2945,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -2975,9 +2977,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2985,9 +2987,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3130,9 +3132,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -3140,14 +3142,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3176,12 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -3189,9 +3191,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3204,9 +3206,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3221,9 +3223,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3258,9 +3260,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3285,9 +3287,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -3365,7 +3367,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3440,14 +3442,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -3457,12 +3459,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
     </row>
@@ -3479,22 +3481,22 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -3519,9 +3521,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3536,9 +3538,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3573,9 +3575,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3602,12 +3604,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -3994,9 +3996,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -4070,9 +4072,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -4085,9 +4087,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4144,10 +4146,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE
-DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -4204,10 +4205,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE
-DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -4215,9 +4215,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -4242,14 +4242,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5160,9 +5160,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5192,9 +5192,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5258,8 +5258,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5396,9 +5396,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5416,9 +5416,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5448,9 +5448,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -5460,14 +5460,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5475,14 +5475,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -5492,14 +5492,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5507,14 +5507,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -5711,9 +5711,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5731,9 +5731,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -5763,9 +5763,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -5795,9 +5795,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5827,9 +5827,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6041,9 +6041,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -6073,9 +6073,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6202,8 +6202,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6361,9 +6361,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6393,9 +6393,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6405,29 +6405,29 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6437,29 +6437,29 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6516,10 +6516,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6676,9 +6676,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6709,9 +6709,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6741,9 +6741,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6758,14 +6758,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -6773,9 +6773,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7146,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
@@ -7223,24 +7223,24 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -7260,19 +7260,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -7319,9 +7319,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -7351,14 +7351,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7462,8 +7462,8 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -7553,9 +7553,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -7575,14 +7576,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7607,14 +7610,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -7666,24 +7671,27 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -7700,7 +7708,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -7713,9 +7721,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -7776,7 +7784,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
@@ -7853,9 +7861,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -7865,7 +7873,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7892,12 +7900,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7922,9 +7930,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -7949,9 +7957,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -7981,14 +7989,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8018,9 +8026,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -8093,7 +8101,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -8173,9 +8181,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8207,12 +8215,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -8264,14 +8272,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8296,14 +8304,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8493,9 +8501,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -8552,9 +8560,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8584,9 +8592,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8613,13 +8621,12 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI
-MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
@@ -8644,9 +8651,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -8708,6 +8715,636 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8801,12 +9438,12 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8868,9 +9505,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8895,9 +9532,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -8927,14 +9564,15 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI
+MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8967,637 +9605,6 @@
       <c r="C8" s="4" t="inlineStr">
         <is>
           <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI
-MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -9724,14 +9731,14 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -9752,14 +9759,14 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>2.5%</t>
         </is>
       </c>
     </row>
@@ -9780,14 +9787,14 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>42.5%</t>
         </is>
       </c>
     </row>
@@ -9808,14 +9815,14 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>52.5%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -9836,14 +9843,14 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>67.5%</t>
         </is>
       </c>
     </row>
@@ -9864,14 +9871,14 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -9920,14 +9927,14 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>72.5%</t>
+          <t>70.0%</t>
         </is>
       </c>
     </row>
@@ -9976,14 +9983,14 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10004,14 +10011,14 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
     </row>
@@ -10032,14 +10039,14 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10060,14 +10067,14 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10116,14 +10123,14 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -10144,14 +10151,14 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10200,14 +10207,14 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -10308,14 +10315,14 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10336,14 +10343,14 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10364,14 +10371,14 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10392,14 +10399,14 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10420,14 +10427,14 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -10448,14 +10455,14 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10504,14 +10511,14 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10532,14 +10539,14 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10560,14 +10567,14 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
     </row>
@@ -10588,14 +10595,14 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10616,14 +10623,14 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -10644,14 +10651,14 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10672,14 +10679,14 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10724,6 +10731,93 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Total Conflicts</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Lab Room Conflicts</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Large Room (120/240) Conflicts</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Regular Room Conflicts</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>All Clear ✓</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -10739,7 +10833,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
@@ -10826,15 +10920,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -10854,16 +10947,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -10888,16 +10979,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -10922,9 +11011,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -10932,9 +11021,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -10949,27 +11038,24 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -10984,14 +11070,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -10999,9 +11085,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -11066,7 +11152,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11107,29 +11193,34 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -11173,18 +11264,17 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
-MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -11209,10 +11299,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
-MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11220,9 +11309,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -11237,9 +11326,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -11269,9 +11358,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -11306,9 +11395,9 @@
           <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -11318,7 +11407,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -11333,29 +11422,34 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -11382,8 +11476,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11424,34 +11518,29 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -11466,9 +11555,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -11476,9 +11565,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -11498,9 +11587,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -11530,9 +11619,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11569,12 +11658,12 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -11589,14 +11678,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -11621,14 +11710,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -11653,34 +11742,29 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12192,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -12116,9 +12200,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -12140,7 +12224,8 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A
+HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -12170,9 +12255,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -12229,9 +12314,10 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A
+HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -12239,9 +12325,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -12261,14 +12347,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -12276,9 +12362,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">

--- a/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
+++ b/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
@@ -71,7 +71,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -100,6 +100,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -150,6 +156,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -530,8 +539,8 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -621,9 +630,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -648,9 +657,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -670,19 +679,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -717,9 +726,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -734,14 +743,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -768,7 +777,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -781,9 +790,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -894,9 +903,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -926,9 +936,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -936,9 +946,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -953,19 +963,20 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -992,7 +1003,8 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1051,8 +1063,8 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A
-HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1082,14 +1094,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1097,9 +1109,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1160,8 +1172,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -1215,9 +1227,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1242,9 +1255,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1269,14 +1282,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1345,12 +1358,12 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -1397,9 +1410,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -1412,9 +1425,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1444,9 +1457,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -1477,9 +1491,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1559,7 +1573,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1567,9 +1581,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -1586,12 +1600,12 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1599,14 +1613,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -1621,9 +1635,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1648,9 +1662,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1690,9 +1704,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1712,14 +1726,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1792,9 +1806,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="47" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1835,9 +1849,10 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1850,14 +1865,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -1872,9 +1889,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1887,9 +1904,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -1899,19 +1916,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1936,9 +1953,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1995,9 +2012,10 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
+HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2029,12 +2047,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2079,9 +2097,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2439,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
@@ -2475,9 +2494,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2502,9 +2522,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2529,9 +2549,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -2539,14 +2559,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
+DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2568,7 +2589,8 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
+DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -2576,9 +2598,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2593,9 +2615,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2625,9 +2647,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2635,9 +2657,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2657,14 +2679,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2672,9 +2694,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -2735,11 +2757,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2817,9 +2839,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2829,12 +2851,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
     </row>
@@ -2849,9 +2871,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -2859,14 +2881,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -2881,14 +2903,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2908,14 +2930,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -2940,19 +2962,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2972,9 +2994,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -2987,9 +3009,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3004,9 +3026,10 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3014,14 +3037,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3052,7 +3077,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
@@ -3100,9 +3125,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -3132,9 +3158,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -3144,12 +3170,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
     </row>
@@ -3159,29 +3185,29 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3201,9 +3227,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3225,7 +3252,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3262,7 +3289,8 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3287,14 +3315,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -3319,9 +3347,10 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3339,9 +3368,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3399,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3410,9 +3440,10 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -3457,14 +3488,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3512,22 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3506,24 +3537,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3540,7 +3571,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3553,9 +3584,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3575,9 +3606,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3604,7 +3635,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -3639,14 +3670,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3996,9 +4029,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -4104,14 +4137,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -4168,9 +4201,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4183,9 +4216,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -4200,9 +4233,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4234,12 +4267,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -4311,10 +4344,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4397,19 +4430,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -4429,14 +4462,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -4456,9 +4489,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4520,9 +4553,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -4530,9 +4563,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4562,9 +4595,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4626,9 +4659,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -4712,9 +4745,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -4744,9 +4777,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -4771,9 +4804,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4840,14 +4873,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4872,14 +4905,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4941,8 +4974,8 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -5027,9 +5060,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5054,14 +5087,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5098,7 +5131,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -5130,7 +5163,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5150,19 +5183,20 @@
           <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5182,19 +5216,20 @@
           <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5241,6 +5276,323 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
+CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
+CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5332,14 +5684,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -5364,14 +5716,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -5396,9 +5748,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5416,9 +5768,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5782,8 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A
+CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5448,9 +5801,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5460,14 +5813,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5477,12 +5830,12 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -5492,14 +5845,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5509,327 +5862,12 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5886,8 +5924,8 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -5962,9 +6000,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -5994,19 +6032,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6043,7 +6081,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -6075,7 +6113,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6100,14 +6138,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6132,14 +6170,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -6277,19 +6315,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6343,7 +6381,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6375,7 +6413,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6407,17 +6445,17 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -6427,7 +6465,7 @@
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6439,17 +6477,17 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -6459,7 +6497,7 @@
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6556,7 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -6592,19 +6630,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6624,19 +6662,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6656,9 +6694,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6690,8 +6728,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE
-CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6736,9 +6773,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6758,19 +6795,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -7148,8 +7185,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -7238,9 +7275,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -7262,12 +7299,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7358,7 +7395,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7464,7 +7501,7 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -7553,10 +7590,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -7578,14 +7614,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7605,21 +7639,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -7639,14 +7671,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -7671,22 +7703,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -7706,9 +7735,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -7784,11 +7813,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7871,9 +7900,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7900,12 +7929,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7932,7 +7961,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -7989,14 +8018,16 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>⚠ LAB CONFLICT:
+MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI
+CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8009,9 +8040,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -8026,9 +8057,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -8041,9 +8072,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -8085,6 +8116,329 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE
+EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>⚠ LAB CONFLICT:
+CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B
+EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE
+EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE
+HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE
+EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE
+EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE
+HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8176,14 +8530,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8213,9 +8567,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -8272,9 +8626,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -8304,14 +8658,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8341,329 +8695,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
           <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -8731,7 +8770,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
@@ -8806,14 +8845,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8823,12 +8862,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -8843,9 +8882,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -8853,9 +8892,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -8875,14 +8914,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8907,9 +8946,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8944,9 +8983,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -8966,19 +9005,19 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -9030,321 +9069,6 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9438,12 +9162,12 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -9473,9 +9197,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -9505,9 +9229,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -9532,14 +9256,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -9564,15 +9288,330 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI
-MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE
+MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9731,14 +9770,14 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -9759,14 +9798,14 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -9787,14 +9826,14 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -9815,14 +9854,14 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>7.5%</t>
         </is>
       </c>
     </row>
@@ -9843,14 +9882,14 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>67.5%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -9871,14 +9910,14 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9937,7 @@
           <t>library</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
@@ -9927,14 +9966,14 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>32.5%</t>
         </is>
       </c>
     </row>
@@ -9954,7 +9993,7 @@
           <t>Examination room</t>
         </is>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
@@ -9983,14 +10022,14 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>27.5%</t>
         </is>
       </c>
     </row>
@@ -10011,14 +10050,14 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10067,14 +10106,14 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
@@ -10094,7 +10133,7 @@
           <t>Physics Lab</t>
         </is>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
@@ -10123,14 +10162,14 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>32.5%</t>
         </is>
       </c>
     </row>
@@ -10151,14 +10190,14 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -10179,14 +10218,14 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>47.5%</t>
         </is>
       </c>
     </row>
@@ -10207,14 +10246,14 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>35.0%</t>
         </is>
       </c>
     </row>
@@ -10224,13 +10263,13 @@
           <t>C306</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr"/>
+      <c r="B20" s="7" t="inlineStr"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
@@ -10258,15 +10297,15 @@
           <t>RESEARCH LAB</t>
         </is>
       </c>
-      <c r="D21" s="6" t="n">
-        <v>0</v>
+      <c r="D21" s="5" t="n">
+        <v>9</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10286,15 +10325,15 @@
           <t>RESEARCH LAB</t>
         </is>
       </c>
-      <c r="D22" s="6" t="n">
-        <v>0</v>
+      <c r="D22" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10315,14 +10354,14 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
@@ -10343,14 +10382,14 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -10371,14 +10410,14 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
@@ -10399,14 +10438,14 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -10427,14 +10466,14 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>27.5%</t>
         </is>
       </c>
     </row>
@@ -10455,14 +10494,14 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10521,7 @@
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
@@ -10511,14 +10550,14 @@
         </is>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
     </row>
@@ -10539,14 +10578,14 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10567,14 +10606,14 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>55.0%</t>
         </is>
       </c>
     </row>
@@ -10595,14 +10634,14 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -10623,14 +10662,14 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10651,14 +10690,14 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10679,14 +10718,14 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10709,20 +10748,139 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="60" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Classroom</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Conflict Period(s)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Details</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>No double-bookings detected - All classroom allocations are unique</t>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>['MA262', 'CS307']</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>['MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI', 'CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>['EC301', 'CS262']</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>['CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B', 'EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE', 'EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE']</t>
         </is>
       </c>
     </row>
@@ -10737,7 +10895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10767,8 +10925,8 @@
           <t>Total Conflicts</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0</v>
+      <c r="B2" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -10777,8 +10935,8 @@
           <t>Lab Room Conflicts</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>0</v>
+      <c r="B3" s="5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10787,7 +10945,7 @@
           <t>Large Room (120/240) Conflicts</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10797,20 +10955,8 @@
           <t>Regular Room Conflicts</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="7" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>All Clear ✓</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -10833,11 +10979,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10925,14 +11071,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -10947,9 +11093,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -10984,9 +11130,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -11006,14 +11152,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -11043,9 +11189,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -11053,9 +11199,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -11087,7 +11233,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -11151,8 +11297,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11193,34 +11339,29 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -11237,12 +11378,12 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -11264,7 +11405,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -11299,19 +11440,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -11341,9 +11482,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -11363,9 +11504,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -11390,14 +11531,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -11405,9 +11546,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -11422,34 +11563,29 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -11476,8 +11612,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11565,14 +11701,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -11589,17 +11725,17 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -11619,9 +11755,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11656,9 +11792,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -11678,19 +11814,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11712,12 +11848,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -11747,9 +11883,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -12107,7 +12244,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12148,28 +12285,25 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
@@ -12192,7 +12326,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -12200,9 +12334,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -12219,18 +12353,17 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A
-HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -12257,12 +12390,12 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -12287,14 +12420,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -12314,15 +12447,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A
-HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -12357,9 +12489,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -12379,34 +12511,29 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
+++ b/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
@@ -71,7 +71,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -100,12 +100,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -156,9 +150,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -539,9 +530,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="59" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -647,14 +638,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -684,14 +675,14 @@
           <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -726,9 +717,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -745,7 +736,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -856,8 +847,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -903,10 +894,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -936,9 +926,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -946,9 +936,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -968,15 +958,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1003,8 +992,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A
-EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1061,10 +1049,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI
-MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1094,14 +1081,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1146,9 +1133,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -1175,8 +1163,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="51" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1227,10 +1215,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1257,7 +1244,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1289,12 +1276,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1356,9 +1343,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1378,9 +1365,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1412,12 +1399,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1447,9 +1434,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1457,15 +1445,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -1491,9 +1479,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1573,7 +1561,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1583,7 +1571,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -1600,12 +1588,12 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1613,14 +1601,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1625,12 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1662,9 +1650,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1694,9 +1682,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1704,9 +1692,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1728,12 +1716,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1807,8 +1795,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="47" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1849,10 +1837,9 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1860,21 +1847,20 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -1889,9 +1875,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1904,9 +1890,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -1916,19 +1902,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1955,7 +1941,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1980,9 +1966,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2012,10 +1998,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
-HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2023,9 +2008,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2047,12 +2032,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2092,15 +2077,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -2441,8 +2426,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2494,10 +2479,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2524,7 +2508,7 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2551,7 +2535,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -2559,10 +2543,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
-DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2587,10 +2570,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
-DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -2598,9 +2580,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2615,9 +2597,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2649,12 +2631,12 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -2679,14 +2661,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2761,7 +2743,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2802,14 +2784,16 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -2839,9 +2823,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2851,12 +2835,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -2871,24 +2855,24 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -2903,19 +2887,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2930,9 +2914,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2940,14 +2924,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2964,17 +2948,17 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2994,19 +2978,19 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3037,16 +3021,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3079,7 +3061,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3127,8 +3109,8 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -3141,9 +3123,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -3158,9 +3141,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -3168,14 +3151,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3185,19 +3168,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -3217,9 +3200,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3229,8 +3212,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
-MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
+          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3252,12 +3234,12 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -3287,10 +3269,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
-MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3317,7 +3298,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -3347,10 +3328,9 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3358,20 +3338,21 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3380,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3440,10 +3421,9 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -3456,14 +3436,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -3493,9 +3475,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -3510,9 +3492,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -3542,14 +3524,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3569,9 +3551,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3579,14 +3561,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3608,7 +3590,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3635,7 +3617,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -3643,9 +3625,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3672,8 +3654,8 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -4110,9 +4092,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4120,9 +4102,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4142,9 +4124,9 @@
           <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -4169,9 +4151,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4201,9 +4183,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4216,9 +4198,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -4235,7 +4217,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4248,9 +4230,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4267,12 +4249,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -4280,9 +4262,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4343,11 +4325,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4420,9 +4402,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -4432,17 +4414,17 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -4462,14 +4444,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -4489,9 +4471,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4499,9 +4481,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -4531,9 +4513,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -4553,19 +4535,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4590,14 +4572,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4658,11 +4640,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4735,14 +4717,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
@@ -4750,9 +4732,9 @@
           <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4777,9 +4759,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -4799,14 +4781,14 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4819,9 +4801,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -4831,9 +4813,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4851,9 +4833,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -4863,9 +4845,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4873,19 +4855,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -4905,19 +4887,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -5055,14 +5037,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5087,14 +5069,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5114,9 +5096,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5129,9 +5111,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -5146,9 +5128,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5161,9 +5143,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5178,25 +5160,24 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
-CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5216,20 +5197,19 @@
           <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
-CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5294,7 +5274,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5369,17 +5349,17 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
           <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5399,14 +5379,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -5414,9 +5394,9 @@
           <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -5433,13 +5413,12 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
-CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -5452,9 +5431,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -5466,8 +5445,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
-CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5485,9 +5463,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -5497,24 +5475,24 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5536,17 +5514,17 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5609,9 +5587,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5684,19 +5662,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5716,19 +5694,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5750,12 +5728,12 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -5782,8 +5760,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A
-CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5815,12 +5792,12 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5828,14 +5805,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5824,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5860,14 +5837,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5902,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -6032,19 +6009,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6064,14 +6041,14 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -6081,7 +6058,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -6096,9 +6073,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6113,7 +6090,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6128,9 +6105,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -6138,9 +6115,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -6170,9 +6147,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -6320,14 +6297,14 @@
           <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6357,9 +6334,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6381,7 +6358,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6413,7 +6390,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6445,12 +6422,12 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -6465,7 +6442,7 @@
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6477,12 +6454,12 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -6497,7 +6474,7 @@
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6534,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6632,7 +6609,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -6642,7 +6619,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6667,14 +6644,14 @@
           <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6696,7 +6673,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6728,7 +6705,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6763,24 +6740,24 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6795,24 +6772,24 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7163,7 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -7299,7 +7276,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -7307,9 +7284,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -7393,9 +7370,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7501,8 +7478,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7580,9 +7557,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -7590,14 +7567,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
     </row>
@@ -7614,7 +7591,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -7622,14 +7599,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -7639,9 +7616,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -7651,12 +7628,12 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7676,9 +7653,9 @@
           <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -7735,9 +7712,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -7815,8 +7792,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -7895,9 +7872,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -7905,9 +7882,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -7929,12 +7906,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7961,7 +7938,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8020,14 +7997,12 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>⚠ LAB CONFLICT:
-MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI
-CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8057,9 +8032,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -8130,11 +8105,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8207,34 +8182,29 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE
-EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>⚠ LAB CONFLICT:
-CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B
-EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE
-EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE
-HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -8244,26 +8214,24 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE
-EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE
-EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -8278,19 +8246,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8315,9 +8283,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8342,15 +8310,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE
-HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8390,9 +8357,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -8453,7 +8420,322 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
@@ -8530,14 +8812,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8567,9 +8849,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -8599,9 +8881,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8626,9 +8908,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -8663,9 +8945,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8697,7 +8979,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -8753,7 +9035,322 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8845,14 +9442,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8862,12 +9459,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -8882,9 +9479,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -8892,9 +9489,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -8914,9 +9511,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8946,9 +9543,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8973,645 +9570,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE
-MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9770,14 +9736,14 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -9798,14 +9764,14 @@
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -9826,14 +9792,14 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -9854,14 +9820,14 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -9882,14 +9848,14 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -9910,14 +9876,14 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.5%</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9903,7 @@
           <t>library</t>
         </is>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
@@ -9966,14 +9932,14 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9959,7 @@
           <t>Examination room</t>
         </is>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
@@ -10022,14 +9988,14 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -10050,14 +10016,14 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>27.5%</t>
         </is>
       </c>
     </row>
@@ -10078,14 +10044,14 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -10106,14 +10072,14 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>32.5%</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10099,7 @@
           <t>Physics Lab</t>
         </is>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
@@ -10162,14 +10128,14 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10190,14 +10156,14 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>45.0%</t>
         </is>
       </c>
     </row>
@@ -10218,14 +10184,14 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>35.0%</t>
         </is>
       </c>
     </row>
@@ -10246,14 +10212,14 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -10263,13 +10229,13 @@
           <t>C306</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr"/>
+      <c r="B20" s="6" t="inlineStr"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
@@ -10326,14 +10292,14 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>27.5%</t>
         </is>
       </c>
     </row>
@@ -10354,14 +10320,14 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10382,14 +10348,14 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
@@ -10410,14 +10376,14 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -10438,14 +10404,14 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -10494,14 +10460,14 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10487,7 @@
           <t>EMPTY</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
@@ -10578,14 +10544,14 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10606,14 +10572,14 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10662,14 +10628,14 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10690,14 +10656,14 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
     </row>
@@ -10718,14 +10684,14 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10748,139 +10714,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="60" customWidth="1" min="8" max="8"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Classroom</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Conflict Period(s)</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Courses</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Lab</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>['MA262', 'CS307']</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>['MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI', 'CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Lab</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>['EC301', 'CS262']</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>['CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B', 'EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE', 'EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE']</t>
+          <t>No double-bookings detected - All classroom allocations are unique</t>
         </is>
       </c>
     </row>
@@ -10895,7 +10742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10925,8 +10772,8 @@
           <t>Total Conflicts</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>2</v>
+      <c r="B2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10935,8 +10782,8 @@
           <t>Lab Room Conflicts</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>2</v>
+      <c r="B3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -10945,7 +10792,7 @@
           <t>Large Room (120/240) Conflicts</t>
         </is>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10955,8 +10802,20 @@
           <t>Regular Room Conflicts</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>All Clear ✓</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -10983,7 +10842,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11071,14 +10930,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -11093,9 +10952,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -11103,9 +10962,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -11154,7 +11013,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -11189,9 +11048,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -11231,9 +11090,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -11296,7 +11155,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -11339,9 +11198,10 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -11376,14 +11236,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -11403,14 +11263,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -11442,12 +11302,12 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -11467,9 +11327,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -11504,9 +11364,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -11531,9 +11391,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -11563,9 +11423,10 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -11613,7 +11474,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11664,9 +11525,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -11691,9 +11553,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -11703,12 +11565,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -11718,24 +11580,24 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -11757,7 +11619,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11782,14 +11644,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -11816,7 +11678,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -11826,7 +11688,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11846,14 +11708,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -11883,10 +11745,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -12243,8 +12104,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12306,10 +12167,9 @@
 MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -12324,9 +12184,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -12334,9 +12194,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -12353,17 +12213,17 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -12371,9 +12231,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -12388,14 +12248,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -12420,14 +12280,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -12447,14 +12307,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
+          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -12484,14 +12344,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">

--- a/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
+++ b/backend/output_timetables/Classroom_Availability_Schedule_Audit.xlsx
@@ -530,7 +530,7 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="59" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -606,19 +606,20 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE
+EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -638,14 +639,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -670,19 +671,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -734,14 +735,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -766,14 +767,15 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE
+EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -848,7 +850,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -894,14 +896,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -926,14 +930,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -963,9 +967,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -990,9 +994,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1054,9 +1058,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1083,7 +1087,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -1133,10 +1137,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -1162,9 +1165,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1237,14 +1240,15 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B
+CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1269,19 +1273,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1306,9 +1310,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1365,9 +1369,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1397,14 +1401,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1434,10 +1438,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1450,10 +1453,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -1554,29 +1556,31 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A
+CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI
+CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1592,31 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A
+CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI
+CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B
+CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A
+CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -1618,24 +1626,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -1650,9 +1658,10 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE
+CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1684,17 +1693,19 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE
+HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B
+CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1716,12 +1727,13 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B
+CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1751,9 +1763,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1796,7 +1809,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1858,9 +1871,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -1870,29 +1884,30 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B
+CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -1902,24 +1917,25 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A
+CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -1941,7 +1957,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1966,14 +1982,15 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A
+CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -2003,14 +2020,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2030,14 +2047,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2077,10 +2094,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2424,11 +2440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2508,12 +2524,13 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE
+CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2533,9 +2550,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -2543,9 +2560,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2553,9 +2570,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI
+CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -2629,14 +2647,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -2693,14 +2711,16 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -2713,9 +2733,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2763,7 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -2784,16 +2805,14 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -2818,14 +2837,15 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B
+CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2833,9 +2853,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2855,14 +2875,16 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B
+CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI
+CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2882,24 +2904,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2924,14 +2946,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2948,17 +2970,18 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B
+CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2983,14 +3006,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3010,10 +3033,9 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3021,9 +3043,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3061,7 +3084,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3102,15 +3125,15 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -3118,15 +3141,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3136,19 +3159,22 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A
+CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI
+DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A
+CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3168,24 +3194,27 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B
+CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
+MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -3205,14 +3234,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3234,12 +3264,14 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A
+CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE
+MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -3264,19 +3296,20 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A
+CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -3298,12 +3331,14 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI
+CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B
+CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -3328,9 +3363,10 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3344,10 +3380,9 @@
 MINOR_Generative_Ai (Generative Ai) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3426,9 +3461,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -3436,16 +3472,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -3455,29 +3489,31 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A
+CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B
+CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
     </row>
@@ -3487,24 +3523,26 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B
+CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Pre-Mid) | CSE Sec B
+CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -3519,19 +3557,21 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE
+EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B
+EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3563,12 +3603,14 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3590,12 +3632,12 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chimayananda A | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to data science and artifical inteligance) | Abdul Wahid | Sem 1 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -3615,9 +3657,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -3625,9 +3667,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3652,16 +3694,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3669,9 +3709,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Design (Design) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Design (Design) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4053,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -4087,24 +4128,25 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE
+CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4119,9 +4161,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -4134,9 +4176,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -4151,9 +4193,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4161,9 +4203,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -4215,9 +4257,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4230,9 +4272,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4247,14 +4289,15 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Pavan Kumar | Sem 5 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI
+DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -4262,9 +4305,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4325,9 +4368,639 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
@@ -4402,9 +5075,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -4412,9 +5085,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -4449,9 +5122,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -4481,9 +5154,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -4513,9 +5186,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -4530,9 +5203,10 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE
+EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4540,14 +5214,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE
+EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4562,9 +5237,10 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE
+EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -4572,14 +5248,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
+          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE
+EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4625,7 +5302,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B
+CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B
+CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI
+DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI
+DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI
+DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI
+DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4717,24 +5715,24 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4783,7 +5781,8 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE
+CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4801,9 +5800,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -4815,7 +5814,8 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE</t>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE
+CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4833,9 +5833,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -4845,29 +5845,33 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A
+CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B
+CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B
+CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI
+CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -4882,24 +5886,28 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A
+CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B
+CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B
+CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI
+CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -4940,7 +5948,326 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B
+EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5037,14 +6364,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5074,9 +6401,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5098,7 +6425,8 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
+CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5130,7 +6458,8 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
+CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5160,24 +6489,28 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A
+CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B
+CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI
+DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A
+CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5194,1287 +6527,31 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A
+CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B
+CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI
+DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B</t>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A
+CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
           <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>EC262 (Semiconductor Devices) | Pankaj Kumar | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
     </row>
@@ -6530,11 +6607,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6607,19 +6684,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>DA262 (Data Handling) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6639,9 +6716,9 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -6649,9 +6726,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6671,9 +6748,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6703,9 +6780,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Post-Mid) | CSE Sec B</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6740,24 +6817,25 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI
+CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -6772,24 +6850,25 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI
+CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -7161,9 +7240,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -7274,9 +7353,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -7284,9 +7363,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Animesh Chaturvedi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -7479,7 +7558,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7557,24 +7636,24 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -7584,29 +7663,30 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Pre-Mid) | ECE
+CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec A</t>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -7621,19 +7701,19 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>CS261 (Operating systems) | Suvadip | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>DA261 (Statistical Programming) | Ramesh Athe | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7648,9 +7728,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -7680,9 +7760,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -7712,9 +7792,9 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -7793,7 +7873,7 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -7872,9 +7952,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Vivekraj | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -7882,9 +7962,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -7904,9 +7984,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -7938,7 +8018,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -7997,12 +8077,13 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | DSAI
+MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8032,9 +8113,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -8105,10 +8186,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -8182,9 +8263,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -8197,9 +8278,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -8214,19 +8295,21 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE
+EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Pre-Mid) | ECE
+EC306 (Digital Signal Processing) | Sibasankar Padhy | Sem 5 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -8251,9 +8334,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8357,9 +8440,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -8420,10 +8503,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -8497,9 +8580,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -8507,9 +8590,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -8536,12 +8619,12 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI</t>
+          <t>MA263 (Random Processes) | Chinmayananda A | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -8598,9 +8681,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Post-Mid) | CSE Sec A</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8630,9 +8713,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Differential Equations) | Anand Barangi | Sem 3 (Post-Mid) | ECE</t>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -8672,9 +8755,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -8736,9 +8819,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -8817,9 +8900,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8827,9 +8910,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -8849,14 +8932,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -8881,9 +8964,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8977,9 +9060,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -9051,9 +9134,9 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -9129,12 +9212,12 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>CS262 (Software design tool and tecnique) | Sunil P V | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Malay Kumar | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -9302,9 +9385,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -9368,8 +9451,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9457,14 +9540,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -9474,14 +9557,16 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI
+DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI
+DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -9489,9 +9574,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec B</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -9511,9 +9596,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -9543,9 +9628,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>CS309 (Statistics for CS) | Sunil C K | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -9570,14 +9655,14 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>CS263 (Design &amp; Analysis of Algorithms) | Pramod | Sem 3 (Post-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9736,14 +9821,14 @@
         </is>
       </c>
       <c r="D2" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -9792,14 +9877,14 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -9820,14 +9905,14 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>32.5%</t>
         </is>
       </c>
     </row>
@@ -9848,14 +9933,14 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>62.5%</t>
         </is>
       </c>
     </row>
@@ -9876,14 +9961,14 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -9932,14 +10017,14 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>45.0%</t>
         </is>
       </c>
     </row>
@@ -9988,14 +10073,14 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -10016,14 +10101,14 @@
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10044,14 +10129,14 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>72.5%</t>
         </is>
       </c>
     </row>
@@ -10072,14 +10157,14 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>42.5%</t>
         </is>
       </c>
     </row>
@@ -10128,14 +10213,14 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -10156,14 +10241,14 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -10184,14 +10269,14 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>90.0%</t>
         </is>
       </c>
     </row>
@@ -10212,14 +10297,14 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>67.5%</t>
         </is>
       </c>
     </row>
@@ -10263,15 +10348,15 @@
           <t>RESEARCH LAB</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
-        <v>9</v>
+      <c r="D21" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -10291,15 +10376,15 @@
           <t>RESEARCH LAB</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>11</v>
+      <c r="D22" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -10320,14 +10405,14 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -10348,14 +10433,14 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>35.0%</t>
         </is>
       </c>
     </row>
@@ -10376,14 +10461,14 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -10404,14 +10489,14 @@
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -10432,14 +10517,14 @@
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -10460,14 +10545,14 @@
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10515,15 +10600,15 @@
           <t>classroom</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
-        <v>2</v>
+      <c r="D30" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -10544,14 +10629,14 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10572,14 +10657,14 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -10600,14 +10685,14 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>7.5%</t>
         </is>
       </c>
     </row>
@@ -10628,14 +10713,14 @@
         </is>
       </c>
       <c r="D34" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
     </row>
@@ -10656,14 +10741,14 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F35" s="5" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
     </row>
@@ -10684,14 +10769,14 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>40</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -10840,9 +10925,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10920,9 +11005,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -10932,12 +11017,12 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec A</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -10947,9 +11032,10 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI
+EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -10957,14 +11043,14 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | CSE Sec B</t>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -10984,14 +11070,15 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI
+DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>DS161 (Introduction to DS and AI) | Girish Revadigar | Sem 1 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -11011,9 +11098,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Manjunath K V | Sem 1 (Post-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -11043,19 +11130,21 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>MA262 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Post-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | ECE
+DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Pre-Mid) | ECE
+DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11155,8 +11244,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -11198,10 +11287,9 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -11214,9 +11302,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_VLSI (VLSI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_VLSI (VLSI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -11231,24 +11320,27 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
+CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -11263,19 +11355,22 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>CS161 (Problem Solving) | Sunil P V | Sem 1 (Pre-Mid) | CSE Sec A
+CS161 (Problem Solving) | Sunil P V | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>MA162 (Probability) | Chinmayananda A | Sem 1 (Pre-Mid) | DSAI</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A
+CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Post-Mid) | DSAI
+EC351 (Introduction to Algorithms) | Jagadeesha R Bhat | Sem 5 (Pre-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -11302,7 +11397,8 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11329,7 +11425,8 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
+          <t>EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Pre-Mid) | ECE
+EC301 (Introduction to VLSI Design) | Jagadish D.N | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -11359,19 +11456,20 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Pre-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11393,7 +11491,8 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A</t>
+          <t>DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Pre-Mid) | DSAI
+DS302 (Computer Communication) | Shirshendu Layek | Sem 5 (Post-Mid) | DSAI</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -11423,10 +11522,9 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -11474,7 +11572,7 @@
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
     <col width="60" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11525,10 +11623,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_Design (Design) |  | Sem 5 (Pre-Mid) | ECE
-MINOR_Design (Design) |  | Sem 5 (Post-Mid) | ECE</t>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -11536,9 +11633,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_DSAI (DSAI) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_DSAI (DSAI) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
     </row>
@@ -11548,14 +11646,14 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -11565,7 +11663,8 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | CSE Sec A
+CS264 (Computer Networks) | Prabhu Prasad B M | Sem 3 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -11580,19 +11679,21 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Sunil C K | Sem 1 (Pre-Mid) | CSE Sec B</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A
+HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
+HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -11619,7 +11720,8 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec B
+HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11644,14 +11746,14 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Deepak K T | Sem 3 (Post-Mid) | ECE</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>MA261 (Multivariable Calculus) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -11678,7 +11780,8 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Pre-Mid) | CSE Sec A
+HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec A</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -11686,9 +11789,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (Digital Design) | Prakash Pawar | Sem 1 (Post-Mid) | CSE Sec A</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11708,14 +11811,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Girish G N | Sem 5 (Post-Mid) | CSE Sec B</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Pre-Mid) | ECE</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -11755,9 +11858,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -12104,8 +12208,8 @@
     <col width="60" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="47" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12146,9 +12250,10 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Pre-Mid) | ECE
+MINOR_Generative_Ai (Generative Ai) |  | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -12161,10 +12266,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>MINOR_VLSI (VLSI) |  | Sem 3 (Pre-Mid) | ECE
-MINOR_VLSI (VLSI) |  | Sem 3 (Post-Mid) | ECE</t>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -12179,19 +12283,20 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Pre-Mid) | DSAI
+DS303 (Algorithms and Data Structures) | Animesh Chaturvedi | Sem 5 (Post-Mid) | DSAI</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>EC263 (Analog Electronics) | Rajesh Kumar | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -12211,19 +12316,21 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (Problem Solving) | Animesh Roy | Sem 1 (Pre-Mid) | DSAI</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
+          <t>HS152 (Economics/IET) | Anushree | Sem 1 (Pre-Mid) | ECE
+HS152 (Economics/IET) | Anushree | Sem 1 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>HS161 (English Language) | Rajesh N S | Sem 1 (Post-Mid) | CSE Sec B</t>
+          <t>CS307 (Machine Learning) | Siddharth | Sem 3 (Pre-Mid) | DSAI
+EC261 (Signals &amp; Systems) | Somen Bhattacharjee | Sem 3 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -12231,9 +12338,9 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>CS307 (Machine Learning) | Siddharth | Sem 5 (Post-Mid) | DSAI</t>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
     </row>
@@ -12275,9 +12382,10 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Pre-Mid) | CSE Sec B
+CS303 (Computer Networks) | Dibyajyothi | Sem 5 (Post-Mid) | CSE Sec B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -12307,14 +12415,15 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (Statistics) | Ramesh Athe | Sem 1 (Post-Mid) | DSAI</t>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>DS161 (Introduction to DATA science and artificial intelligence) | Girish Revadigar | Sem 1 (Post-Mid) | ECE</t>
+          <t>MA261 (Differential Equations) | Anand Barangi | Sem 3 (Pre-Mid) | DSAI
+HS351 (Happiness &amp; Wellbeing) | Chandrika Kamat | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -12339,14 +12448,15 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>CS304 (Artificial Intelligence) | Krishnendu | Sem 5 (Pre-Mid) | CSE Sec A</t>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CS303 (Computer Networks) | Animesh Roy | Sem 5 (Pre-Mid) | CSE Sec A
+CS303 (Computer Networks) | Animesh Roy | Sem 5 (Post-Mid) | CSE Sec A</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>FREE</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -12386,9 +12496,10 @@
           <t>FREE</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>FREE</t>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Pre-Mid) | ECE
+MINOR_Cybersecurity (Cybersecurity) |  | Sem 5 (Post-Mid) | ECE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
